--- a/test_物件管理/已完成/test_ホワイトボート_問い合わせ履歴.xlsx
+++ b/test_物件管理/已完成/test_ホワイトボート_問い合わせ履歴.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -3104,7 +3104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW125"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -12470,7 +12470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/test_物件管理/已完成/test_ホワイトボート_問い合わせ履歴.xlsx
+++ b/test_物件管理/已完成/test_ホワイトボート_問い合わせ履歴.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="602">
   <si>
     <t>URL:</t>
   </si>
@@ -2040,6 +2040,9 @@
   <si>
     <t>002-001-021-問い合わせ反響入力</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_wrong_posting</t>
   </si>
 </sst>
 </file>
@@ -3104,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="AH85" sqref="AH85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5404,6 +5407,9 @@
       <c r="AF73" s="72" t="s">
         <v>289</v>
       </c>
+      <c r="AG73" s="148" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="74" spans="1:75" s="86" customFormat="1">
       <c r="A74" s="88"/>
@@ -5500,7 +5506,9 @@
       <c r="AF74" s="85" t="s">
         <v>368</v>
       </c>
-      <c r="AG74" s="83"/>
+      <c r="AG74" s="160">
+        <v>0</v>
+      </c>
       <c r="AH74" s="83"/>
       <c r="AI74" s="83"/>
       <c r="AJ74" s="83"/>
@@ -5638,7 +5646,9 @@
       <c r="AF75" s="85" t="s">
         <v>488</v>
       </c>
-      <c r="AG75" s="83"/>
+      <c r="AG75" s="160">
+        <v>0</v>
+      </c>
       <c r="AH75" s="83"/>
       <c r="AI75" s="83"/>
       <c r="AJ75" s="83"/>
@@ -5776,7 +5786,9 @@
       <c r="AF76" s="85" t="s">
         <v>489</v>
       </c>
-      <c r="AG76" s="83"/>
+      <c r="AG76" s="160">
+        <v>0</v>
+      </c>
       <c r="AH76" s="83"/>
       <c r="AI76" s="83"/>
       <c r="AJ76" s="83"/>
@@ -5914,7 +5926,9 @@
       <c r="AF77" s="85" t="s">
         <v>490</v>
       </c>
-      <c r="AG77" s="83"/>
+      <c r="AG77" s="160">
+        <v>0</v>
+      </c>
       <c r="AH77" s="83"/>
       <c r="AI77" s="83"/>
       <c r="AJ77" s="83"/>
@@ -6052,7 +6066,9 @@
       <c r="AF78" s="85" t="s">
         <v>491</v>
       </c>
-      <c r="AG78" s="83"/>
+      <c r="AG78" s="160">
+        <v>0</v>
+      </c>
       <c r="AH78" s="83"/>
       <c r="AI78" s="83"/>
       <c r="AJ78" s="83"/>
